--- a/table_list.xlsx
+++ b/table_list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20475" windowHeight="10305"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20472" windowHeight="10308" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mysql" sheetId="1" r:id="rId1"/>
@@ -43,18 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id:id (자동생성),
-user_id : user_id,
-nicname : nicname,
-content_id : content_id,
-content_title : content_title,
-comment : comment,
-delete_yn : delete_yn
-create_date : create_date,
-delete_date : delete_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE TABLE contents (
     row_id INTEGER NOT NULL AUTO_INCREMENT,
     user_id VARCHAR(50) NOT NULL,
@@ -70,6 +58,17 @@
     delete_date DATETIME,
     PRIMARY KEY (row_id , user_id , nicname)
 );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id:id (자동생성),
+nicname : nicname,
+content_id : content_id,
+content_title : content_title,
+comment : comment,
+delete_yn : delete_yn
+create_date : create_date,
+delete_date : delete_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,8 +126,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,15 +453,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="1" max="1" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.8984375" customWidth="1"/>
+    <col min="3" max="3" width="44.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="247.5" x14ac:dyDescent="0.3">
@@ -445,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -458,18 +485,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="45.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
